--- a/.storybook/public/audits/MaintenancePage.xlsx
+++ b/.storybook/public/audits/MaintenancePage.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="264">
   <si>
     <t>Composant : MaintenancePage</t>
   </si>
@@ -22,13 +22,27 @@
     <t>Audit V1</t>
   </si>
   <si>
-    <t>Correction post audit V1 - (voir - https://github.com/assurance-maladie-digital/design-system/issues/4006)</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">Correction post audit V1 - (voir - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF1155CC"/>
+        <sz val="14.0"/>
+        <u/>
+      </rPr>
+      <t>https://github.com/assurance-maladie-digital/design-system/issues/653)</t>
+    </r>
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>28/04/2025</t>
   </si>
   <si>
     <t>Version</t>
@@ -37,7 +51,7 @@
     <t>1.0.0</t>
   </si>
   <si>
-    <t>0.0.16-alpha</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Nombre de critères conformes</t>
@@ -826,10 +840,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -852,6 +867,18 @@
       <sz val="14.0"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -1060,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1079,35 +1106,41 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="4" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="2" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1118,23 +1151,23 @@
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf quotePrefix="1" borderId="7" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf quotePrefix="1" borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="2" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -1491,8 +1524,8 @@
       <c r="D3" s="10">
         <v>45814.0</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>5</v>
+      <c r="E3" s="11">
+        <v>45845.0</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1518,15 +1551,15 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>8</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1552,16 +1585,16 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="12">
+      <c r="D5" s="13">
         <f> COUNTIF($D$14:$D$119,"Conforme")</f>
         <v>9</v>
       </c>
-      <c r="E5" s="11">
-        <v>17.0</v>
+      <c r="E5" s="12">
+        <v>0.0</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1587,15 +1620,15 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="12">
+      <c r="D6" s="13">
         <f> COUNTIF($D$14:$D$119,"Non conforme")</f>
         <v>2</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="14">
         <v>0.0</v>
       </c>
       <c r="F6" s="4"/>
@@ -1622,16 +1655,16 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="12">
+      <c r="D7" s="13">
         <f> COUNTIF($D$14:$D$119,"Non applicable")</f>
         <v>95</v>
       </c>
-      <c r="E7" s="11">
-        <v>89.0</v>
+      <c r="E7" s="12">
+        <v>95.0</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1657,15 +1690,15 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="12">
+      <c r="D8" s="13">
         <f> COUNTIF($D$14:$D$119,"Dérogé")</f>
         <v>0</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="14">
         <v>0.0</v>
       </c>
       <c r="F8" s="4"/>
@@ -1692,15 +1725,15 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="12">
+      <c r="D9" s="13">
         <f> COUNTIF($D$14:$D$119,"Non testé")</f>
         <v>0</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="14">
         <v>0.0</v>
       </c>
       <c r="F9" s="4"/>
@@ -1726,16 +1759,16 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>14</v>
+      <c r="A10" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="14">
+      <c r="D10" s="16">
         <f>IF(SUM(D5:D6)&gt;0,D5/SUM(D5:D6),"")</f>
         <v>0.8181818182</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="17">
         <v>1.0</v>
       </c>
       <c r="F10" s="4"/>
@@ -1761,16 +1794,16 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>15</v>
+      <c r="A11" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="14">
+      <c r="D11" s="16">
         <f>IF(SUM(D5:D6)&gt;0,1-ROUND(D10,2),"")</f>
         <v>0.18</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="17">
         <v>0.0</v>
       </c>
       <c r="F11" s="4"/>
@@ -1796,9 +1829,9 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1824,23 +1857,23 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="C13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="F13" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>21</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1864,20 +1897,20 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="C14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="D14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1900,21 +1933,21 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="D15" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="E15" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="F15" s="30" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>30</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1938,18 +1971,18 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
+      <c r="D16" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1972,18 +2005,18 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="21" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
+      <c r="D17" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -2006,18 +2039,18 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
+      <c r="D18" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -2040,18 +2073,18 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="26"/>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
+      <c r="D19" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -2074,18 +2107,18 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="21" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
+      <c r="D20" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -2108,18 +2141,18 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="26"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
+      <c r="D21" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -2142,18 +2175,18 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="21" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
+      <c r="D22" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -2176,20 +2209,20 @@
       <c r="Z22" s="4"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="C23" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
+      <c r="D23" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -2212,18 +2245,18 @@
       <c r="Z23" s="4"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="21" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
+      <c r="D24" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -2246,20 +2279,20 @@
       <c r="Z24" s="4"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="C25" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
+      <c r="D25" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -2282,20 +2315,20 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="21" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="D26" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="E26" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -2318,18 +2351,18 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="21" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
+      <c r="D27" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -2352,20 +2385,20 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="C28" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
+      <c r="D28" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -2388,18 +2421,18 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="26"/>
-      <c r="B29" s="21" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
+      <c r="D29" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -2422,18 +2455,18 @@
       <c r="Z29" s="4"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="26"/>
-      <c r="B30" s="21" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="25"/>
+      <c r="D30" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -2456,18 +2489,18 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="21" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
+      <c r="D31" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -2490,18 +2523,18 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="21" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
+      <c r="D32" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -2524,18 +2557,18 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="26"/>
-      <c r="B33" s="21" t="s">
+      <c r="A33" s="28"/>
+      <c r="B33" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="25"/>
+      <c r="D33" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="27"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -2558,18 +2591,18 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="21" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
+      <c r="D34" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -2592,18 +2625,18 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="26"/>
-      <c r="B35" s="21" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="25"/>
+      <c r="D35" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -2626,18 +2659,18 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="26"/>
-      <c r="B36" s="21" t="s">
+      <c r="A36" s="28"/>
+      <c r="B36" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="25"/>
+      <c r="D36" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2660,18 +2693,18 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="26"/>
-      <c r="B37" s="21" t="s">
+      <c r="A37" s="28"/>
+      <c r="B37" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
+      <c r="D37" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2694,18 +2727,18 @@
       <c r="Z37" s="4"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="26"/>
-      <c r="B38" s="21" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="25"/>
+      <c r="D38" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2728,18 +2761,18 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="26"/>
-      <c r="B39" s="21" t="s">
+      <c r="A39" s="28"/>
+      <c r="B39" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="25"/>
+      <c r="D39" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -2762,18 +2795,18 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="29"/>
-      <c r="B40" s="21" t="s">
+      <c r="A40" s="31"/>
+      <c r="B40" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="25"/>
+      <c r="D40" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -2796,20 +2829,20 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="C41" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25"/>
+      <c r="D41" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="26"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2832,18 +2865,18 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="26"/>
-      <c r="B42" s="21" t="s">
+      <c r="A42" s="28"/>
+      <c r="B42" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="25"/>
+      <c r="D42" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -2866,18 +2899,18 @@
       <c r="Z42" s="4"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="26"/>
-      <c r="B43" s="21" t="s">
+      <c r="A43" s="28"/>
+      <c r="B43" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="25"/>
+      <c r="D43" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="26"/>
+      <c r="F43" s="27"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -2900,18 +2933,18 @@
       <c r="Z43" s="4"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="26"/>
-      <c r="B44" s="21" t="s">
+      <c r="A44" s="28"/>
+      <c r="B44" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="25"/>
+      <c r="D44" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="27"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -2934,18 +2967,18 @@
       <c r="Z44" s="4"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="26"/>
-      <c r="B45" s="21" t="s">
+      <c r="A45" s="28"/>
+      <c r="B45" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="25"/>
+      <c r="D45" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -2968,18 +3001,18 @@
       <c r="Z45" s="4"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="26"/>
-      <c r="B46" s="21" t="s">
+      <c r="A46" s="28"/>
+      <c r="B46" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="25"/>
+      <c r="D46" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="26"/>
+      <c r="F46" s="27"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -3002,18 +3035,18 @@
       <c r="Z46" s="4"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="26"/>
-      <c r="B47" s="21" t="s">
+      <c r="A47" s="28"/>
+      <c r="B47" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="25"/>
+      <c r="D47" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="26"/>
+      <c r="F47" s="27"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -3036,18 +3069,18 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="29"/>
-      <c r="B48" s="21" t="s">
+      <c r="A48" s="31"/>
+      <c r="B48" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="25"/>
+      <c r="D48" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -3070,20 +3103,20 @@
       <c r="Z48" s="4"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="C49" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="25"/>
+      <c r="D49" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="27"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -3106,18 +3139,18 @@
       <c r="Z49" s="4"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="29"/>
-      <c r="B50" s="21" t="s">
+      <c r="A50" s="31"/>
+      <c r="B50" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="25"/>
+      <c r="D50" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -3140,22 +3173,22 @@
       <c r="Z50" s="4"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="C51" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="D51" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D51" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F51" s="25"/>
+      <c r="F51" s="27"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -3178,18 +3211,18 @@
       <c r="Z51" s="4"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="26"/>
-      <c r="B52" s="21" t="s">
+      <c r="A52" s="28"/>
+      <c r="B52" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="25"/>
+      <c r="D52" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -3212,18 +3245,18 @@
       <c r="Z52" s="4"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="26"/>
-      <c r="B53" s="21" t="s">
+      <c r="A53" s="28"/>
+      <c r="B53" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="25"/>
+      <c r="D53" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="26"/>
+      <c r="F53" s="27"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -3246,18 +3279,18 @@
       <c r="Z53" s="4"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="26"/>
-      <c r="B54" s="21" t="s">
+      <c r="A54" s="28"/>
+      <c r="B54" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="25"/>
+      <c r="D54" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="26"/>
+      <c r="F54" s="27"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -3280,18 +3313,18 @@
       <c r="Z54" s="4"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="29"/>
-      <c r="B55" s="21" t="s">
+      <c r="A55" s="31"/>
+      <c r="B55" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="25"/>
+      <c r="D55" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="26"/>
+      <c r="F55" s="27"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
@@ -3314,20 +3347,20 @@
       <c r="Z55" s="4"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="C56" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="25"/>
+      <c r="D56" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="26"/>
+      <c r="F56" s="27"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
@@ -3350,21 +3383,21 @@
       <c r="Z56" s="4"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="26"/>
-      <c r="B57" s="21" t="s">
+      <c r="A57" s="28"/>
+      <c r="B57" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="D57" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D57" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="30" t="s">
+      <c r="F57" s="33" t="s">
         <v>125</v>
-      </c>
-      <c r="F57" s="31" t="s">
-        <v>126</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -3388,18 +3421,18 @@
       <c r="Z57" s="4"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="26"/>
-      <c r="B58" s="21" t="s">
+      <c r="A58" s="28"/>
+      <c r="B58" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="25"/>
+      <c r="D58" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -3422,18 +3455,18 @@
       <c r="Z58" s="4"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="26"/>
-      <c r="B59" s="21" t="s">
+      <c r="A59" s="28"/>
+      <c r="B59" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="25"/>
+      <c r="D59" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="26"/>
+      <c r="F59" s="27"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -3456,18 +3489,18 @@
       <c r="Z59" s="4"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="26"/>
-      <c r="B60" s="21" t="s">
+      <c r="A60" s="28"/>
+      <c r="B60" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C60" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="25"/>
+      <c r="D60" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -3490,18 +3523,18 @@
       <c r="Z60" s="4"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="26"/>
-      <c r="B61" s="21" t="s">
+      <c r="A61" s="28"/>
+      <c r="B61" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="25"/>
+      <c r="D61" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="26"/>
+      <c r="F61" s="27"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -3524,18 +3557,18 @@
       <c r="Z61" s="4"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="26"/>
-      <c r="B62" s="21" t="s">
+      <c r="A62" s="28"/>
+      <c r="B62" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="25"/>
+      <c r="D62" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -3558,18 +3591,18 @@
       <c r="Z62" s="4"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="26"/>
-      <c r="B63" s="21" t="s">
+      <c r="A63" s="28"/>
+      <c r="B63" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="25"/>
+      <c r="D63" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="26"/>
+      <c r="F63" s="27"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
@@ -3592,18 +3625,18 @@
       <c r="Z63" s="4"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="26"/>
-      <c r="B64" s="21" t="s">
+      <c r="A64" s="28"/>
+      <c r="B64" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C64" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="25"/>
+      <c r="D64" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="26"/>
+      <c r="F64" s="27"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
@@ -3626,18 +3659,18 @@
       <c r="Z64" s="4"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="29"/>
-      <c r="B65" s="21" t="s">
+      <c r="A65" s="31"/>
+      <c r="B65" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C65" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="25"/>
+      <c r="D65" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="26"/>
+      <c r="F65" s="27"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
@@ -3660,20 +3693,20 @@
       <c r="Z65" s="4"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="C66" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C66" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="25"/>
+      <c r="D66" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -3696,18 +3729,18 @@
       <c r="Z66" s="4"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="26"/>
-      <c r="B67" s="21" t="s">
+      <c r="A67" s="28"/>
+      <c r="B67" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C67" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="25"/>
+      <c r="D67" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="26"/>
+      <c r="F67" s="27"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -3730,18 +3763,18 @@
       <c r="Z67" s="4"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="26"/>
-      <c r="B68" s="21" t="s">
+      <c r="A68" s="28"/>
+      <c r="B68" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C68" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="25"/>
+      <c r="D68" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
@@ -3764,18 +3797,18 @@
       <c r="Z68" s="4"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="29"/>
-      <c r="B69" s="21" t="s">
+      <c r="A69" s="31"/>
+      <c r="B69" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="C69" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="25"/>
+      <c r="D69" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="26"/>
+      <c r="F69" s="27"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
@@ -3798,22 +3831,22 @@
       <c r="Z69" s="4"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="C70" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="D70" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E70" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="D70" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E70" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="F70" s="25"/>
+      <c r="F70" s="27"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -3836,20 +3869,20 @@
       <c r="Z70" s="4"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="26"/>
-      <c r="B71" s="21" t="s">
+      <c r="A71" s="28"/>
+      <c r="B71" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="D71" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="D71" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E71" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="F71" s="25"/>
+      <c r="F71" s="27"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -3872,20 +3905,20 @@
       <c r="Z71" s="4"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="26"/>
-      <c r="B72" s="21" t="s">
+      <c r="A72" s="28"/>
+      <c r="B72" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="D72" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D72" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E72" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="F72" s="25"/>
+      <c r="F72" s="27"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
@@ -3908,20 +3941,20 @@
       <c r="Z72" s="4"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="26"/>
-      <c r="B73" s="21" t="s">
+      <c r="A73" s="28"/>
+      <c r="B73" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="D73" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="D73" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E73" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="F73" s="25"/>
+      <c r="F73" s="27"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
@@ -3944,20 +3977,20 @@
       <c r="Z73" s="4"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="26"/>
-      <c r="B74" s="21" t="s">
+      <c r="A74" s="28"/>
+      <c r="B74" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="D74" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="D74" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E74" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="F74" s="25"/>
+      <c r="F74" s="27"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
@@ -3980,18 +4013,18 @@
       <c r="Z74" s="4"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="26"/>
-      <c r="B75" s="21" t="s">
+      <c r="A75" s="28"/>
+      <c r="B75" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C75" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E75" s="24"/>
-      <c r="F75" s="25"/>
+      <c r="D75" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="26"/>
+      <c r="F75" s="27"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -4014,18 +4047,18 @@
       <c r="Z75" s="4"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="26"/>
-      <c r="B76" s="21" t="s">
+      <c r="A76" s="28"/>
+      <c r="B76" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="C76" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D76" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="25"/>
+      <c r="D76" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="26"/>
+      <c r="F76" s="27"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
@@ -4048,18 +4081,18 @@
       <c r="Z76" s="4"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="26"/>
-      <c r="B77" s="21" t="s">
+      <c r="A77" s="28"/>
+      <c r="B77" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C77" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="C77" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D77" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="25"/>
+      <c r="D77" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="26"/>
+      <c r="F77" s="27"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
@@ -4082,18 +4115,18 @@
       <c r="Z77" s="4"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="26"/>
-      <c r="B78" s="21" t="s">
+      <c r="A78" s="28"/>
+      <c r="B78" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C78" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="25"/>
+      <c r="D78" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="26"/>
+      <c r="F78" s="27"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
@@ -4116,18 +4149,18 @@
       <c r="Z78" s="4"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="26"/>
-      <c r="B79" s="21" t="s">
+      <c r="A79" s="28"/>
+      <c r="B79" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C79" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D79" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E79" s="24"/>
-      <c r="F79" s="25"/>
+      <c r="D79" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="26"/>
+      <c r="F79" s="27"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
@@ -4150,20 +4183,20 @@
       <c r="Z79" s="4"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="26"/>
-      <c r="B80" s="21" t="s">
+      <c r="A80" s="28"/>
+      <c r="B80" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="D80" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D80" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E80" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="F80" s="25"/>
+      <c r="F80" s="27"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
@@ -4186,20 +4219,20 @@
       <c r="Z80" s="4"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="26"/>
-      <c r="B81" s="21" t="s">
+      <c r="A81" s="28"/>
+      <c r="B81" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C81" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="D81" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D81" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E81" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="F81" s="25"/>
+      <c r="F81" s="27"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
@@ -4222,18 +4255,18 @@
       <c r="Z81" s="4"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="26"/>
-      <c r="B82" s="21" t="s">
+      <c r="A82" s="28"/>
+      <c r="B82" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C82" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="D82" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E82" s="24"/>
-      <c r="F82" s="25"/>
+      <c r="D82" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="26"/>
+      <c r="F82" s="27"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
@@ -4256,18 +4289,18 @@
       <c r="Z82" s="4"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="29"/>
-      <c r="B83" s="21" t="s">
+      <c r="A83" s="31"/>
+      <c r="B83" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C83" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="C83" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E83" s="24"/>
-      <c r="F83" s="25"/>
+      <c r="D83" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="26"/>
+      <c r="F83" s="27"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
@@ -4290,20 +4323,20 @@
       <c r="Z83" s="4"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="20" t="s">
+      <c r="A84" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B84" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="C84" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C84" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="D84" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="25"/>
+      <c r="D84" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="26"/>
+      <c r="F84" s="27"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
@@ -4326,18 +4359,18 @@
       <c r="Z84" s="4"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="26"/>
-      <c r="B85" s="21" t="s">
+      <c r="A85" s="28"/>
+      <c r="B85" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C85" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E85" s="24"/>
-      <c r="F85" s="25"/>
+      <c r="D85" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="26"/>
+      <c r="F85" s="27"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
@@ -4360,18 +4393,18 @@
       <c r="Z85" s="4"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="26"/>
-      <c r="B86" s="21" t="s">
+      <c r="A86" s="28"/>
+      <c r="B86" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C86" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="C86" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D86" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E86" s="24"/>
-      <c r="F86" s="25"/>
+      <c r="D86" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="26"/>
+      <c r="F86" s="27"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
@@ -4394,18 +4427,18 @@
       <c r="Z86" s="4"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="26"/>
-      <c r="B87" s="21" t="s">
+      <c r="A87" s="28"/>
+      <c r="B87" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E87" s="24"/>
-      <c r="F87" s="25"/>
+      <c r="D87" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="26"/>
+      <c r="F87" s="27"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
@@ -4428,18 +4461,18 @@
       <c r="Z87" s="4"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="26"/>
-      <c r="B88" s="21" t="s">
+      <c r="A88" s="28"/>
+      <c r="B88" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="C88" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="25"/>
+      <c r="D88" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="26"/>
+      <c r="F88" s="27"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
@@ -4462,18 +4495,18 @@
       <c r="Z88" s="4"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="26"/>
-      <c r="B89" s="21" t="s">
+      <c r="A89" s="28"/>
+      <c r="B89" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C89" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="C89" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="D89" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E89" s="24"/>
-      <c r="F89" s="25"/>
+      <c r="D89" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="26"/>
+      <c r="F89" s="27"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
@@ -4496,18 +4529,18 @@
       <c r="Z89" s="4"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="26"/>
-      <c r="B90" s="21" t="s">
+      <c r="A90" s="28"/>
+      <c r="B90" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="C90" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E90" s="24"/>
-      <c r="F90" s="25"/>
+      <c r="D90" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="26"/>
+      <c r="F90" s="27"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
@@ -4530,18 +4563,18 @@
       <c r="Z90" s="4"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="26"/>
-      <c r="B91" s="21" t="s">
+      <c r="A91" s="28"/>
+      <c r="B91" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="C91" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D91" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E91" s="24"/>
-      <c r="F91" s="25"/>
+      <c r="D91" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="26"/>
+      <c r="F91" s="27"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
@@ -4564,18 +4597,18 @@
       <c r="Z91" s="4"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="26"/>
-      <c r="B92" s="21" t="s">
+      <c r="A92" s="28"/>
+      <c r="B92" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="C92" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E92" s="24"/>
-      <c r="F92" s="25"/>
+      <c r="D92" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="26"/>
+      <c r="F92" s="27"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
@@ -4598,18 +4631,18 @@
       <c r="Z92" s="4"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="26"/>
-      <c r="B93" s="21" t="s">
+      <c r="A93" s="28"/>
+      <c r="B93" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C93" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="D93" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E93" s="24"/>
-      <c r="F93" s="25"/>
+      <c r="D93" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="26"/>
+      <c r="F93" s="27"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
@@ -4632,18 +4665,18 @@
       <c r="Z93" s="4"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="26"/>
-      <c r="B94" s="21" t="s">
+      <c r="A94" s="28"/>
+      <c r="B94" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C94" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C94" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="D94" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E94" s="24"/>
-      <c r="F94" s="25"/>
+      <c r="D94" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="26"/>
+      <c r="F94" s="27"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
@@ -4666,18 +4699,18 @@
       <c r="Z94" s="4"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="26"/>
-      <c r="B95" s="21" t="s">
+      <c r="A95" s="28"/>
+      <c r="B95" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C95" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C95" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E95" s="24"/>
-      <c r="F95" s="25"/>
+      <c r="D95" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="26"/>
+      <c r="F95" s="27"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
@@ -4700,18 +4733,18 @@
       <c r="Z95" s="4"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="29"/>
-      <c r="B96" s="21" t="s">
+      <c r="A96" s="31"/>
+      <c r="B96" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C96" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C96" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="D96" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="25"/>
+      <c r="D96" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="26"/>
+      <c r="F96" s="27"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
@@ -4734,20 +4767,20 @@
       <c r="Z96" s="4"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B97" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="B97" s="21" t="s">
+      <c r="C97" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="C97" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="D97" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="25"/>
+      <c r="D97" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="26"/>
+      <c r="F97" s="27"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
@@ -4770,18 +4803,18 @@
       <c r="Z97" s="4"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="26"/>
-      <c r="B98" s="21" t="s">
+      <c r="A98" s="28"/>
+      <c r="B98" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C98" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="C98" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D98" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="25"/>
+      <c r="D98" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="26"/>
+      <c r="F98" s="27"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
@@ -4804,18 +4837,18 @@
       <c r="Z98" s="4"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="26"/>
-      <c r="B99" s="21" t="s">
+      <c r="A99" s="28"/>
+      <c r="B99" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C99" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="C99" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="D99" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E99" s="24"/>
-      <c r="F99" s="25"/>
+      <c r="D99" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="26"/>
+      <c r="F99" s="27"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
@@ -4838,18 +4871,18 @@
       <c r="Z99" s="4"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="26"/>
-      <c r="B100" s="21" t="s">
+      <c r="A100" s="28"/>
+      <c r="B100" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="C100" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="D100" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E100" s="24"/>
-      <c r="F100" s="25"/>
+      <c r="D100" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="26"/>
+      <c r="F100" s="27"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
@@ -4872,18 +4905,18 @@
       <c r="Z100" s="4"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="26"/>
-      <c r="B101" s="21" t="s">
+      <c r="A101" s="28"/>
+      <c r="B101" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C101" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="C101" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E101" s="24"/>
-      <c r="F101" s="25"/>
+      <c r="D101" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="26"/>
+      <c r="F101" s="27"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
@@ -4906,18 +4939,18 @@
       <c r="Z101" s="4"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="26"/>
-      <c r="B102" s="21" t="s">
+      <c r="A102" s="28"/>
+      <c r="B102" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="C102" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D102" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E102" s="24"/>
-      <c r="F102" s="25"/>
+      <c r="D102" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="26"/>
+      <c r="F102" s="27"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
@@ -4940,18 +4973,18 @@
       <c r="Z102" s="4"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="26"/>
-      <c r="B103" s="21" t="s">
+      <c r="A103" s="28"/>
+      <c r="B103" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C103" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="C103" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="D103" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E103" s="24"/>
-      <c r="F103" s="25"/>
+      <c r="D103" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="26"/>
+      <c r="F103" s="27"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
@@ -4974,18 +5007,18 @@
       <c r="Z103" s="4"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="26"/>
-      <c r="B104" s="21" t="s">
+      <c r="A104" s="28"/>
+      <c r="B104" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C104" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="C104" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="D104" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E104" s="24"/>
-      <c r="F104" s="25"/>
+      <c r="D104" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="26"/>
+      <c r="F104" s="27"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
@@ -5008,18 +5041,18 @@
       <c r="Z104" s="4"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="26"/>
-      <c r="B105" s="21" t="s">
+      <c r="A105" s="28"/>
+      <c r="B105" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="C105" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="D105" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E105" s="24"/>
-      <c r="F105" s="25"/>
+      <c r="D105" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="26"/>
+      <c r="F105" s="27"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
@@ -5042,18 +5075,18 @@
       <c r="Z105" s="4"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="26"/>
-      <c r="B106" s="21" t="s">
+      <c r="A106" s="28"/>
+      <c r="B106" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C106" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="C106" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="D106" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E106" s="24"/>
-      <c r="F106" s="25"/>
+      <c r="D106" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="26"/>
+      <c r="F106" s="27"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
@@ -5076,18 +5109,18 @@
       <c r="Z106" s="4"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="29"/>
-      <c r="B107" s="21" t="s">
+      <c r="A107" s="31"/>
+      <c r="B107" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C107" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="C107" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="D107" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="25"/>
+      <c r="D107" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="26"/>
+      <c r="F107" s="27"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
@@ -5110,20 +5143,20 @@
       <c r="Z107" s="4"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="20" t="s">
+      <c r="A108" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="B108" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="B108" s="21" t="s">
+      <c r="C108" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="C108" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="D108" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E108" s="24"/>
-      <c r="F108" s="25"/>
+      <c r="D108" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="26"/>
+      <c r="F108" s="27"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
@@ -5146,18 +5179,18 @@
       <c r="Z108" s="4"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="26"/>
-      <c r="B109" s="21" t="s">
+      <c r="A109" s="28"/>
+      <c r="B109" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C109" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="C109" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D109" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E109" s="24"/>
-      <c r="F109" s="25"/>
+      <c r="D109" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="26"/>
+      <c r="F109" s="27"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
@@ -5180,18 +5213,18 @@
       <c r="Z109" s="4"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="26"/>
-      <c r="B110" s="21" t="s">
+      <c r="A110" s="28"/>
+      <c r="B110" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C110" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="C110" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="D110" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E110" s="24"/>
-      <c r="F110" s="25"/>
+      <c r="D110" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="26"/>
+      <c r="F110" s="27"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
@@ -5214,18 +5247,18 @@
       <c r="Z110" s="4"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="26"/>
-      <c r="B111" s="21" t="s">
+      <c r="A111" s="28"/>
+      <c r="B111" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C111" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="C111" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="D111" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E111" s="24"/>
-      <c r="F111" s="25"/>
+      <c r="D111" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" s="26"/>
+      <c r="F111" s="27"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
@@ -5248,18 +5281,18 @@
       <c r="Z111" s="4"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="26"/>
-      <c r="B112" s="21" t="s">
+      <c r="A112" s="28"/>
+      <c r="B112" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C112" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="C112" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="D112" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E112" s="24"/>
-      <c r="F112" s="25"/>
+      <c r="D112" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" s="26"/>
+      <c r="F112" s="27"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
@@ -5282,18 +5315,18 @@
       <c r="Z112" s="4"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="26"/>
-      <c r="B113" s="21" t="s">
+      <c r="A113" s="28"/>
+      <c r="B113" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="C113" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="D113" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E113" s="24"/>
-      <c r="F113" s="25"/>
+      <c r="D113" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="26"/>
+      <c r="F113" s="27"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
@@ -5316,18 +5349,18 @@
       <c r="Z113" s="4"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="26"/>
-      <c r="B114" s="21" t="s">
+      <c r="A114" s="28"/>
+      <c r="B114" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C114" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="C114" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="D114" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E114" s="24"/>
-      <c r="F114" s="25"/>
+      <c r="D114" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="26"/>
+      <c r="F114" s="27"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
@@ -5350,18 +5383,18 @@
       <c r="Z114" s="4"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="26"/>
-      <c r="B115" s="21" t="s">
+      <c r="A115" s="28"/>
+      <c r="B115" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C115" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="C115" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="D115" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E115" s="24"/>
-      <c r="F115" s="25"/>
+      <c r="D115" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" s="26"/>
+      <c r="F115" s="27"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
@@ -5384,18 +5417,18 @@
       <c r="Z115" s="4"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="26"/>
-      <c r="B116" s="21" t="s">
+      <c r="A116" s="28"/>
+      <c r="B116" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C116" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="C116" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="D116" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E116" s="24"/>
-      <c r="F116" s="25"/>
+      <c r="D116" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" s="26"/>
+      <c r="F116" s="27"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
@@ -5418,18 +5451,18 @@
       <c r="Z116" s="4"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="26"/>
-      <c r="B117" s="21" t="s">
+      <c r="A117" s="28"/>
+      <c r="B117" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C117" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="C117" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="D117" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E117" s="24"/>
-      <c r="F117" s="25"/>
+      <c r="D117" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="26"/>
+      <c r="F117" s="27"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
@@ -5452,18 +5485,18 @@
       <c r="Z117" s="4"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="26"/>
-      <c r="B118" s="21" t="s">
+      <c r="A118" s="28"/>
+      <c r="B118" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C118" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="C118" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="D118" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E118" s="24"/>
-      <c r="F118" s="25"/>
+      <c r="D118" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" s="26"/>
+      <c r="F118" s="27"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
@@ -5486,18 +5519,18 @@
       <c r="Z118" s="4"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="29"/>
-      <c r="B119" s="21" t="s">
+      <c r="A119" s="31"/>
+      <c r="B119" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C119" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C119" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="D119" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E119" s="24"/>
-      <c r="F119" s="25"/>
+      <c r="D119" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="26"/>
+      <c r="F119" s="27"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
@@ -5604,14 +5637,14 @@
       <c r="Z122" s="4"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="32" t="s">
-        <v>263</v>
+      <c r="A123" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="7"/>
-      <c r="E123" s="33" t="s">
-        <v>264</v>
+      <c r="E123" s="35" t="s">
+        <v>263</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
@@ -5636,11 +5669,11 @@
       <c r="Z123" s="4"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="34"/>
+      <c r="A124" s="36"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="7"/>
-      <c r="E124" s="35"/>
+      <c r="E124" s="37"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -5664,11 +5697,11 @@
       <c r="Z124" s="4"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="34"/>
+      <c r="A125" s="36"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="7"/>
-      <c r="E125" s="35"/>
+      <c r="E125" s="37"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -5692,11 +5725,11 @@
       <c r="Z125" s="4"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="34"/>
+      <c r="A126" s="36"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="7"/>
-      <c r="E126" s="35"/>
+      <c r="E126" s="37"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -5720,11 +5753,11 @@
       <c r="Z126" s="4"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="36"/>
+      <c r="A127" s="38"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="7"/>
-      <c r="E127" s="35"/>
+      <c r="E127" s="37"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -30248,9 +30281,12 @@
       <formula1>"Conforme,Non conforme,Non applicable,Dérogé,Non testé"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E2"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>